--- a/2-ExcelDocuments/arabic_letters_without_diacritics.xlsx
+++ b/2-ExcelDocuments/arabic_letters_without_diacritics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\MST\MST\ExcelDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\MST\MST\2-ExcelDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>eos</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
 </sst>
 </file>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,324 +521,796 @@
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/2-ExcelDocuments/arabic_letters_without_diacritics.xlsx
+++ b/2-ExcelDocuments/arabic_letters_without_diacritics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -548,10 +548,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -570,10 +570,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -592,10 +592,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -614,10 +614,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -625,7 +625,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>43</v>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -647,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -658,10 +658,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -672,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -680,10 +680,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -702,10 +702,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -724,10 +724,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -746,10 +746,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -760,7 +760,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -768,10 +768,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -782,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -790,10 +790,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -812,10 +812,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -834,10 +834,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -848,7 +848,7 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -856,10 +856,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -878,10 +878,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -900,10 +900,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -914,7 +914,7 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -922,10 +922,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -936,7 +936,7 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -944,10 +944,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -958,7 +958,7 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -966,10 +966,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -980,7 +980,7 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -988,10 +988,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1002,7 +1002,7 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1010,10 +1010,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1032,10 +1032,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1046,7 +1046,7 @@
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1054,10 +1054,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1068,7 +1068,7 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1076,10 +1076,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1090,7 +1090,7 @@
         <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1098,10 +1098,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
         <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1120,10 +1120,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1134,7 +1134,7 @@
         <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1142,10 +1142,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1156,7 +1156,7 @@
         <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1164,10 +1164,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1178,7 +1178,7 @@
         <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1186,10 +1186,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1200,7 +1200,7 @@
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1208,10 +1208,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1222,7 +1222,7 @@
         <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1230,7 +1230,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
         <v>42</v>
@@ -1241,10 +1241,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1255,7 +1255,7 @@
         <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1263,10 +1263,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1277,7 +1277,7 @@
         <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
         <v>42</v>
@@ -1296,7 +1296,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
         <v>42</v>
@@ -1307,9 +1307,20 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>42</v>
       </c>
     </row>
